--- a/fp1/webapp_sample_datasets/food_details.xlsx
+++ b/fp1/webapp_sample_datasets/food_details.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isbhydmoh-my.sharepoint.com/personal/kanishk_gupta_ampba2024s_isb_edu/Documents/Desktop/ISB/Term 2/Foundational Project 1/webapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isbhydmoh-my.sharepoint.com/personal/kanishk_gupta_ampba2024s_isb_edu/Documents/Desktop/ISB/github_codes/ampba_24_group18_term2/fp1/webapp_sample_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{98706D21-13CB-4199-8E85-B4ACB671EDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF919570-B25C-4A46-A7E9-247D7CDC7C2F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{98706D21-13CB-4199-8E85-B4ACB671EDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3BD12A4-99C0-4924-94CA-6C6DA10EC8FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$E$401</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="820">
   <si>
     <t>Food_ID</t>
   </si>
@@ -1284,9 +1286,6 @@
     <t>plain flour, baking powder, salt, castor sugar, baking soda, eggs, butter, vanilla essence, lemon juice, poppy seed, lemon peel, to serve:, lemon syrup, whip cream, fresh berry</t>
   </si>
   <si>
-    <t>chocolate kaju katli</t>
-  </si>
-  <si>
     <t>cashew nuts, sugar, water, milk chocolate or dark chocolate</t>
   </si>
   <si>
@@ -1518,9 +1517,6 @@
     <t>potatoes, paneer (cottage cheese), maida, coriander leaves (chopped), onion, ginger-garlic paste, tomatoes, malai or cream, raisins and cashew nuts, cashew nuts paste, haldi, red chilli powder, kitchen king masala, kasuri methi (dry fenugreek), salt, sugar</t>
   </si>
   <si>
-    <t>homemade gulab jamun</t>
-  </si>
-  <si>
     <t>sugar, water, milk, cardamom seeds, saffron, cardamom powder, khoya, baking soda, maida, milk</t>
   </si>
   <si>
@@ -1560,9 +1556,6 @@
     <t>broccoli, butter, extra virgin olive oil, all-purpose flour, low fat milk, salt, black pepper, cheddar cheese, eggs (separated), egg whites, cream of tarter</t>
   </si>
   <si>
-    <t>christmas dry fruit cake</t>
-  </si>
-  <si>
     <t>butter (at room temperature), dark brown sugar, eggs, flour, salt, all spice powder, cinnamon, nutmeg, currants; golden raisins; dark raisins (each), soft dried figs, dates (pitted), prunes (stoned dried), apricots (dried), almonds (chopped), brandy, instant espresso (mixed with 1 tbsp water)</t>
   </si>
   <si>
@@ -2301,9 +2294,6 @@
     <t xml:space="preserve"> korean sauce, boneless chicken,sesame seeds</t>
   </si>
   <si>
-    <t>Prawn kastu Curry</t>
-  </si>
-  <si>
     <t>prawn, rice, japanes curry sauce, bread crumbs, rice</t>
   </si>
   <si>
@@ -2499,1018 +2489,16 @@
     <t>kosher salt, rosemary, garlic, potato, olive oil, carrot, walnut, cheese, ground pepper</t>
   </si>
   <si>
-    <t>Summer Squash Salad</t>
-  </si>
-  <si>
-    <t>Chicken Minced Salad</t>
-  </si>
-  <si>
-    <t>Sweet Chilli Almonds</t>
-  </si>
-  <si>
-    <t>Tricolour Salad</t>
-  </si>
-  <si>
-    <t>Christmas Cake</t>
-  </si>
-  <si>
-    <t>Japanese Curry Arancini With Barley Salsa</t>
-  </si>
-  <si>
-    <t>Chocolate Nero Cookies</t>
-  </si>
-  <si>
-    <t>Lamb And Chargrilled Bell Pepper Soup</t>
-  </si>
-  <si>
-    <t>Cream Of Almond Soup</t>
-  </si>
-  <si>
-    <t>Broccoli And Almond Soup</t>
-  </si>
-  <si>
-    <t>Coconut Lime Quinoa Salad</t>
-  </si>
-  <si>
-    <t>Lemon Honey Glazed Sous Vide Corn On The Cob</t>
-  </si>
-  <si>
-    <t>Watermelon And Strawberry Smoothie</t>
-  </si>
-  <si>
-    <t>Peach, Raspberry And Nuts Smoothie</t>
-  </si>
-  <si>
-    <t>Almond And Cranberry Poha</t>
-  </si>
-  <si>
-    <t>Almond And Raw Banana Galawat</t>
-  </si>
-  <si>
-    <t>Baked Namakpara With Roasted Almond Dip</t>
-  </si>
-  <si>
-    <t>Grilled Almond Barfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baked Shankarpali </t>
-  </si>
-  <si>
-    <t>Baked Multigrain Murukku</t>
-  </si>
-  <si>
-    <t>Apple Rabdi</t>
-  </si>
-  <si>
-    <t>Baked Namak Para</t>
-  </si>
-  <si>
-    <t>Dates And Nuts Ladoo</t>
-  </si>
-  <si>
-    <t>Green Lentil Dessert Fudge</t>
-  </si>
-  <si>
-    <t>Cashew Nut Cookies</t>
-  </si>
-  <si>
-    <t>Almond Pearls</t>
-  </si>
-  <si>
-    <t>Hawaiin Papaya Salad</t>
-  </si>
-  <si>
-    <t>Vegetable Som Tam Salad</t>
-  </si>
-  <si>
-    <t>Spinach And Feta Crepes</t>
-  </si>
-  <si>
-    <t>Couscous With Ratatouille - Tangy Tomato Sauce</t>
-  </si>
-  <si>
-    <t>Baked Almond Kofta</t>
-  </si>
-  <si>
-    <t>Almond And Amaranth Ladoo</t>
-  </si>
-  <si>
-    <t>Moong Dal Kiwi Coconut Soup</t>
-  </si>
-  <si>
-    <t>Mixed Berry &amp; Banana Smoothie</t>
-  </si>
-  <si>
-    <t>Banana Walnut Smoothie</t>
-  </si>
-  <si>
-    <t>Spicy Watermelon Soup</t>
-  </si>
-  <si>
-    <t>Red Rice Poha</t>
-  </si>
-  <si>
-    <t>Mixed Salad With Lotus Root</t>
-  </si>
-  <si>
-    <t>Sweet Potato And Quinoa Bowl</t>
-  </si>
-  <si>
-    <t>Corn And Raw Mango Salad</t>
-  </si>
-  <si>
-    <t>Khichdi</t>
-  </si>
-  <si>
-    <t>Sugar Free Modak</t>
-  </si>
-  <si>
-    <t>Beetroot Modak</t>
-  </si>
-  <si>
-    <t>Andhra Pan Fried Pomfret</t>
-  </si>
-  <si>
-    <t>Ghee Roast Chicken Dosa Quesadilla</t>
-  </si>
-  <si>
-    <t>Steam Bunny Chicken Bao</t>
-  </si>
-  <si>
-    <t>Meat Lovers Pizza</t>
-  </si>
-  <si>
-    <t>Almond And Chicken Momos (Without Shell)</t>
-  </si>
-  <si>
-    <t>Christmas Tree Pizza</t>
-  </si>
-  <si>
-    <t>French Pork Chop</t>
-  </si>
-  <si>
-    <t>Christmas Chocolate Fudge Cookies</t>
-  </si>
-  <si>
-    <t>Chicken Parmigiana With Tomato Sauce</t>
-  </si>
-  <si>
-    <t>Chocolate Appe</t>
-  </si>
-  <si>
-    <t>Sous-Vide Salmon Tikka</t>
-  </si>
-  <si>
-    <t>Filo Pizza</t>
-  </si>
-  <si>
-    <t>Chocolate Samosa</t>
-  </si>
-  <si>
-    <t>Fish With Jamun Sauce</t>
-  </si>
-  <si>
-    <t>Dahi Lasooni Chicken</t>
-  </si>
-  <si>
-    <t>Pesto Fish Kebabs</t>
-  </si>
-  <si>
-    <t>Caramelized Sesame Smoked Almonds</t>
-  </si>
-  <si>
-    <t>Crunchy Vegetable Dal Sattu Croquettes</t>
-  </si>
-  <si>
-    <t>Active Charcoal Modak</t>
-  </si>
-  <si>
-    <t>Flax Seed And Beetroot Modak</t>
-  </si>
-  <si>
-    <t>Chocolate Prunes Gujiyas</t>
-  </si>
-  <si>
-    <t>Almond  White Chocolate Gujiya</t>
-  </si>
-  <si>
-    <t>Betel Nut Popsicle</t>
-  </si>
-  <si>
-    <t>Clotted Cottage Cheese Croquettes</t>
-  </si>
-  <si>
-    <t>Gajar Tart</t>
-  </si>
-  <si>
-    <t>Banana And Maple Ice Lollies</t>
-  </si>
-  <si>
-    <t>Shepherds Salad (Tamatar-Kheera Salaad)</t>
-  </si>
-  <si>
-    <t>Carrot Ginger Soup</t>
-  </si>
-  <si>
-    <t>Dark Night</t>
-  </si>
-  <si>
-    <t>Hot Chocolate</t>
-  </si>
-  <si>
-    <t>Slow Cooked Spiced Sangria</t>
-  </si>
-  <si>
-    <t>Detox Haldi Tea</t>
-  </si>
-  <si>
-    <t>Holi Special Ice Tea Thandai</t>
-  </si>
-  <si>
-    <t>Grilled Lemon Margarita</t>
-  </si>
-  <si>
-    <t>Spanish Artichoke And Spinach Dip</t>
-  </si>
-  <si>
-    <t>Beetroot And Green Apple Soup</t>
-  </si>
-  <si>
-    <t>Baba Budan No. 7</t>
-  </si>
-  <si>
-    <t>Fruit Infused Tea</t>
-  </si>
-  <si>
-    <t>Soya Milk</t>
-  </si>
-  <si>
-    <t>Spiced Coffee</t>
-  </si>
-  <si>
-    <t>Filter Coffee</t>
-  </si>
-  <si>
-    <t>Garlic And Pinenut Soup With Burnt Butter Essence</t>
-  </si>
-  <si>
-    <t>Roast Turkey With Cranberry Sauce</t>
-  </si>
-  <si>
-    <t>Roasted Spring Chicken With Root Veggies</t>
-  </si>
-  <si>
-    <t>Peri Peri Chicken Satay</t>
-  </si>
-  <si>
-    <t>Chicken Popcorn</t>
-  </si>
-  <si>
-    <t>Half Roast Chicken</t>
-  </si>
-  <si>
-    <t>Chicken Biryani</t>
-  </si>
-  <si>
-    <t>Chicken Farcha</t>
-  </si>
-  <si>
-    <t>Buldak (Hot And Spicy Chicken)</t>
-  </si>
-  <si>
-    <t>Chicken Sukka</t>
-  </si>
-  <si>
-    <t>Steamed Chicken Roulade</t>
-  </si>
-  <si>
-    <t>Methi Chicken Masala</t>
-  </si>
-  <si>
-    <t>Restaurant Style Fried Chicken</t>
-  </si>
-  <si>
-    <t>Chicken Potli</t>
-  </si>
-  <si>
-    <t>Spicy Chicken Masala</t>
-  </si>
-  <si>
-    <t>Spicy Chicken Curry</t>
-  </si>
-  <si>
-    <t>Crispy Herb Chicken</t>
-  </si>
-  <si>
-    <t>Dahi Chicken</t>
-  </si>
-  <si>
-    <t>Amritsari Chicken Masala</t>
-  </si>
-  <si>
-    <t>Chilli Chicken</t>
-  </si>
-  <si>
-    <t>Chicken Tenders</t>
-  </si>
-  <si>
-    <t>Chicken Nimbu Dhaniya Shorba</t>
-  </si>
-  <si>
-    <t>Garlic Soya Chicken</t>
-  </si>
-  <si>
-    <t>Cauliflower And Chicken Biryani</t>
-  </si>
-  <si>
-    <t>Chicken Quinoa Biryani</t>
-  </si>
-  <si>
-    <t>Chicken And Mushroom Lasagna</t>
-  </si>
-  <si>
-    <t>Plum And Cherry Roasted Chicken</t>
-  </si>
-  <si>
-    <t>Chicken Roulade</t>
-  </si>
-  <si>
-    <t>Sticky Rum Chicken Wings</t>
-  </si>
-  <si>
-    <t>Chicken Dragon</t>
-  </si>
-  <si>
-    <t>Chicken Palwal</t>
-  </si>
-  <si>
-    <t>Pan Seared Thigh Of Chicken</t>
-  </si>
-  <si>
-    <t>Chicken In Mahalak Sauce</t>
-  </si>
-  <si>
-    <t>Grilled Kasundi Honey Chicken With Sweet Potato Mash</t>
-  </si>
-  <si>
-    <t>Chicken Dong Style</t>
-  </si>
-  <si>
-    <t>Microwave Tandoori Chicken</t>
-  </si>
-  <si>
-    <t>Methi Malai Cranberry Chicken</t>
-  </si>
-  <si>
-    <t>Southern Fried Chicken Tenders</t>
-  </si>
-  <si>
-    <t>Thai Style Chicken Tikka</t>
-  </si>
-  <si>
-    <t>Chicken Gilafi Kebab</t>
-  </si>
-  <si>
-    <t>Cheese Chicken Kebabs</t>
-  </si>
-  <si>
-    <t>Andhra Crab Meat Masala</t>
-  </si>
-  <si>
-    <t>Cajun Spiced Turkey Wrapped With Bacon</t>
-  </si>
-  <si>
-    <t>Thai Lamb Balls</t>
-  </si>
-  <si>
-    <t>Oyster Lamb</t>
-  </si>
-  <si>
-    <t>Chicken Shami Kebab</t>
-  </si>
-  <si>
-    <t>Balti Meat</t>
-  </si>
-  <si>
-    <t>Coffee Marinated Mutton Chops</t>
-  </si>
-  <si>
-    <t>Sali Boti (Parsi Meat Dish)</t>
-  </si>
-  <si>
-    <t>Braised Lamb Shanks</t>
-  </si>
-  <si>
-    <t>Bengali Lamb Curry</t>
-  </si>
-  <si>
-    <t>Malabari Fish Curry</t>
-  </si>
-  <si>
-    <t>Japanese Fish Stew</t>
-  </si>
-  <si>
-    <t>Malabar Fish Curry</t>
-  </si>
-  <si>
-    <t>Surmai Curry With Lobster Butter Rice</t>
-  </si>
-  <si>
-    <t>Seared Salmon In Tabasco Butter</t>
-  </si>
-  <si>
-    <t>Risotto Lobster With Parmesan Egg Pancake, Confit Tomatoes And Coral Tuille</t>
-  </si>
-  <si>
-    <t>Fish Skewers With Coriander And Red Wine Vinegar Dressing</t>
-  </si>
-  <si>
-    <t>Seafood Rock Filler</t>
-  </si>
-  <si>
-    <t>Shrimp &amp; Cilantro Ceviche</t>
-  </si>
-  <si>
-    <t>Saewoo Bokumbop (Shrimp Fried Rice)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thai Prawn Curry &amp; Baked Rice </t>
-  </si>
-  <si>
-    <t>Bihari Fish Curry</t>
-  </si>
-  <si>
-    <t>Curry Fish Fingers</t>
-  </si>
-  <si>
-    <t>Prawn And Litchi Salad</t>
-  </si>
-  <si>
-    <t>Kerala Fish Curry</t>
-  </si>
-  <si>
-    <t>Fish Andlouse</t>
-  </si>
-  <si>
-    <t>Prawn Fried Rice</t>
-  </si>
-  <si>
-    <t>Damdama Fish Curry</t>
-  </si>
-  <si>
-    <t>Fish With White Sauce</t>
-  </si>
-  <si>
-    <t>Chilli Fish</t>
-  </si>
-  <si>
-    <t>Fish Ambultiyal</t>
-  </si>
-  <si>
-    <t>Chettinad Fish Fry</t>
-  </si>
-  <si>
-    <t>Fish Moilee</t>
-  </si>
-  <si>
-    <t>Batter Fish</t>
-  </si>
-  <si>
-    <t>Fish Salan</t>
-  </si>
-  <si>
-    <t>Spanish Fish Fry</t>
-  </si>
-  <si>
-    <t>Prawn Potato Soup</t>
-  </si>
-  <si>
-    <t>Red Rice Vermicelli Kheer</t>
-  </si>
-  <si>
-    <t>Green Cucumber Shots</t>
-  </si>
-  <si>
-    <t>Thai Pineapple Rice</t>
-  </si>
-  <si>
-    <t>Green Asparagus Risotto</t>
-  </si>
-  <si>
-    <t>Veg Fried Rice</t>
-  </si>
-  <si>
-    <t>Egg And Garlic Fried Rice</t>
-  </si>
-  <si>
-    <t>Curd Rice</t>
-  </si>
-  <si>
-    <t>Fried Rice With Soya Chunks</t>
-  </si>
-  <si>
-    <t>Corn Pulao</t>
-  </si>
-  <si>
-    <t>Zucchini Methi Pulao</t>
-  </si>
-  <si>
-    <t>Lemon Rice</t>
-  </si>
-  <si>
-    <t>Kale Channe Ki Biryani</t>
-  </si>
-  <si>
-    <t>Chicken Paella</t>
-  </si>
-  <si>
-    <t>Thai Fish Curry</t>
-  </si>
-  <si>
-    <t>Vegetable Pulao</t>
-  </si>
-  <si>
-    <t>Oats Shallots Pulao</t>
-  </si>
-  <si>
-    <t>Shiitake Fried Rice With Water Chestnuts</t>
-  </si>
-  <si>
-    <t>Lotus Leaf Wrapped Fried Rice</t>
-  </si>
-  <si>
-    <t>Vegetable Biryani</t>
-  </si>
-  <si>
-    <t>Avial With Red Rice</t>
-  </si>
-  <si>
-    <t>Rice In Lamb Stock</t>
-  </si>
-  <si>
-    <t>Vegetable Bruschetta</t>
-  </si>
-  <si>
-    <t>Red Wine Braised Mushroom Flatbread</t>
-  </si>
-  <si>
-    <t>Strawberry &amp; Pistachio Breton Tart</t>
-  </si>
-  <si>
-    <t>Tricolour Pizza</t>
-  </si>
-  <si>
-    <t>Instant Rava Dosa</t>
-  </si>
-  <si>
-    <t>Easy Bread Poha</t>
-  </si>
-  <si>
-    <t>Bread Chana Basket</t>
-  </si>
-  <si>
-    <t>Spaghetti With Clams &amp; Crispy Bread Crumbs</t>
-  </si>
-  <si>
-    <t>Kasha Bread</t>
-  </si>
-  <si>
-    <t>Egg Paratha</t>
-  </si>
-  <si>
-    <t>Egg And Cheddar Cheese Sandwich</t>
-  </si>
-  <si>
-    <t>Egg In A Blanket</t>
-  </si>
-  <si>
-    <t>Bread Dahi Vada</t>
-  </si>
-  <si>
-    <t>Cheese And Avocado Parantha</t>
-  </si>
-  <si>
-    <t>Bread With Tomatoes And Olives</t>
-  </si>
-  <si>
-    <t>Lemon Poppy Seed Cake</t>
-  </si>
-  <si>
-    <t>Chocolate Kaju Katli</t>
-  </si>
-  <si>
-    <t>Mix Fruit Laccha Rabri Tortilla Crunch</t>
-  </si>
-  <si>
-    <t>Pista Chocolate &amp; Mandarin</t>
-  </si>
-  <si>
-    <t>Banana And Chia Tea Cake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate And Almond Rum Ball </t>
-  </si>
-  <si>
-    <t>Lemon Sushi Cake</t>
-  </si>
-  <si>
-    <t>Chocolate Doughnut</t>
-  </si>
-  <si>
-    <t>Spiced Almond Banana Jaggery Cake</t>
-  </si>
-  <si>
-    <t>Fennel Scented Sweet Banana Fritters</t>
-  </si>
-  <si>
-    <t>Camel Milk Cake Tart</t>
-  </si>
-  <si>
-    <t>Quinoa Coconut Crumble Custard</t>
-  </si>
-  <si>
-    <t>Lamb Barley Pot</t>
-  </si>
-  <si>
-    <t>Al Hachi Chicken</t>
-  </si>
-  <si>
-    <t>Berry Parfait Hazelnut White Chocolate Sable</t>
-  </si>
-  <si>
-    <t>Badam Papite Ke Kebab With Pineapple Salsa</t>
-  </si>
-  <si>
-    <t>Mixed Vegetable Soup</t>
-  </si>
-  <si>
-    <t>Duo Of Chocolate And Strawberry</t>
-  </si>
-  <si>
-    <t>Mustard-Parmesan Whole Roasted Cauliflower</t>
-  </si>
-  <si>
-    <t>Hassel Back Sweet Potatoes</t>
-  </si>
-  <si>
-    <t>Mother Christmas Cake</t>
-  </si>
-  <si>
-    <t>Matcha Tea Macarons</t>
-  </si>
-  <si>
-    <t>Amaranthus Granola With Lemon Yogurt, Berries And Marigold</t>
-  </si>
-  <si>
-    <t>Chocolate Fudge Cookies</t>
-  </si>
-  <si>
-    <t>Veg Summer Rolls</t>
-  </si>
-  <si>
-    <t>Eggless Vanilla Cake</t>
-  </si>
-  <si>
-    <t>Sweet Potato Pie</t>
-  </si>
-  <si>
-    <t>Wok Tossed Asparagus In Mild Garlic Sauce</t>
-  </si>
-  <si>
-    <t>Cinnamon Oatmeal Pancakes</t>
-  </si>
-  <si>
-    <t>Chocolate Chip Cheesecake</t>
-  </si>
-  <si>
-    <t>Chocolate Lava Cake</t>
-  </si>
-  <si>
-    <t>Eggless Coffee Cupcakes</t>
-  </si>
-  <si>
-    <t>Chicken In White Wine</t>
-  </si>
-  <si>
-    <t>Apple And Walnut Cake</t>
-  </si>
-  <si>
-    <t>Gluten Free Almond Cake</t>
-  </si>
-  <si>
-    <t>Cinnamon Star Cookies</t>
-  </si>
-  <si>
-    <t>Whole Wheat Cake</t>
-  </si>
-  <si>
-    <t>Plum Cake</t>
-  </si>
-  <si>
-    <t>Double Chocolate Easter Cookies</t>
-  </si>
-  <si>
-    <t>Holi Special Malai Kofta</t>
-  </si>
-  <si>
-    <t>Homemade Gulab Jamun</t>
-  </si>
-  <si>
-    <t>Lamb Rogan Josh</t>
-  </si>
-  <si>
-    <t>Fish Curry</t>
-  </si>
-  <si>
-    <t>Rice Kheer</t>
-  </si>
-  <si>
-    <t>Assorted Rice Kheer Sushi</t>
-  </si>
-  <si>
-    <t>Jalebi With Fennel Yogurt Pudding</t>
-  </si>
-  <si>
-    <t>Broccoli Souffle</t>
-  </si>
-  <si>
-    <t>Christmas Dry Fruit Cake</t>
-  </si>
-  <si>
-    <t>Microwave Chicken Steak</t>
-  </si>
-  <si>
-    <t>Cheese And Ham Roll</t>
-  </si>
-  <si>
-    <t>Vegetable Manchurian</t>
-  </si>
-  <si>
-    <t>Jerk Chicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemon Poppy Seed Cake </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steam Bunny Chicken Bao </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double Chocolate Easter Cookies </t>
-  </si>
-  <si>
-    <t>Orange Quinoa Sevaiyan</t>
-  </si>
-  <si>
-    <t>Spicy Creamy Kadai Chicken</t>
-  </si>
-  <si>
-    <t>Apple Kheer</t>
-  </si>
-  <si>
-    <t>Ragi Oats Ladoo (Laddu)</t>
-  </si>
-  <si>
-    <t>Lamb Korma</t>
-  </si>
-  <si>
-    <t>Ragi Coconut Ladoo (Laddu)</t>
-  </si>
-  <si>
-    <t>Quick Chicken Curry</t>
-  </si>
-  <si>
-    <t>Chicken Shaami Kebab</t>
-  </si>
-  <si>
-    <t>Chicken Masala</t>
-  </si>
-  <si>
-    <t>Holi Special Bhang Pakode</t>
-  </si>
-  <si>
-    <t>Kuttu Atta Pizza</t>
-  </si>
-  <si>
-    <t>Arbi Kofta With Mint Yogurt Dip</t>
-  </si>
-  <si>
-    <t>Puffed Rice Squares</t>
-  </si>
-  <si>
-    <t>Red Velvet Banana Pudding</t>
-  </si>
-  <si>
-    <t>Baked Wild Berry Cheesecake</t>
-  </si>
-  <si>
-    <t>Spiced Orange Valencia Cake</t>
-  </si>
-  <si>
-    <t>Jalapeno Cheese Fingers</t>
-  </si>
-  <si>
-    <t>Californian Breakfast Benedict</t>
-  </si>
-  <si>
-    <t>Chocolate Marquise</t>
-  </si>
-  <si>
-    <t>Corn &amp; Jalapeno Poppers</t>
-  </si>
-  <si>
-    <t>Banana Phirni Tartlets With Fresh Strawberries</t>
-  </si>
-  <si>
-    <t>Mexican Pizza</t>
-  </si>
-  <si>
-    <t>Apple And Pear Cake</t>
-  </si>
-  <si>
-    <t>Microwave Chocolate Cake</t>
-  </si>
-  <si>
-    <t>White Chocolate And Lemon Pastry</t>
-  </si>
-  <si>
-    <t>Mixed Beans Salad</t>
-  </si>
-  <si>
-    <t>Baked Raw Banana Samosa</t>
-  </si>
-  <si>
-    <t>Coconut Mango Oatmeal With Cinnamon Hint</t>
-  </si>
-  <si>
-    <t>Fruit Cube Salad</t>
-  </si>
-  <si>
-    <t>Veg Hakka Noodles</t>
-  </si>
-  <si>
-    <t>Strawberry Quinoa Pancakes</t>
-  </si>
-  <si>
-    <t>Spinach &amp; Banana Pancakes</t>
-  </si>
-  <si>
-    <t>French Onion Grilled Cheese</t>
-  </si>
-  <si>
-    <t>Pasta In Cheese Sauce</t>
-  </si>
-  <si>
-    <t>Deviled Scotch Egg</t>
-  </si>
-  <si>
-    <t>Amritsari Fish</t>
-  </si>
-  <si>
-    <t>Butter Chicken</t>
-  </si>
-  <si>
-    <t>Chicken Razala</t>
-  </si>
-  <si>
-    <t>Chicken Tikka</t>
-  </si>
-  <si>
-    <t>Chicken Tikka Masala</t>
-  </si>
-  <si>
-    <t>Mushroom Matar</t>
-  </si>
-  <si>
-    <t>Tandoori Fish Tikka</t>
-  </si>
-  <si>
-    <t>Chettinadu Chicken</t>
-  </si>
-  <si>
-    <t>Chicken 65</t>
-  </si>
-  <si>
-    <t>Kolim / Jawla</t>
-  </si>
-  <si>
-    <t>Black Rice</t>
-  </si>
-  <si>
-    <t>Brown Rice</t>
-  </si>
-  <si>
-    <t>Koldil Chicken</t>
-  </si>
-  <si>
-    <t>Red Rice</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Sunga Pork</t>
-  </si>
-  <si>
-    <t>Banana Chips</t>
-  </si>
-  <si>
-    <t>Bhurji- Egg</t>
-  </si>
-  <si>
-    <t>Flattened Rice / Poha</t>
-  </si>
-  <si>
-    <t>Puffed Rice</t>
-  </si>
-  <si>
-    <t>Honeydew Salad With Ginger Dressing And Peanuts</t>
-  </si>
-  <si>
-    <t>Kimchi And Miso Noodle Soup</t>
-  </si>
-  <si>
-    <t>Quinoa Bowl And Berries</t>
-  </si>
-  <si>
-    <t>Shawarma-Spiced Braised Leg Of Lamb</t>
-  </si>
-  <si>
-    <t>Roast Pork Tenderloin With Carrot Romesco</t>
-  </si>
-  <si>
-    <t>Ricotta Gnocchi With Asparagus, Peas, And Morels</t>
-  </si>
-  <si>
-    <t>Pho Tai Rare Beef</t>
-  </si>
-  <si>
-    <t>Lemony Crab Salad With Baby Greens</t>
-  </si>
-  <si>
-    <t>Grill Lemon Grass Pork Baguette</t>
-  </si>
-  <si>
-    <t>Cucumber And Radish Salad</t>
-  </si>
-  <si>
-    <t>Rice With Soy-Glazed Bonito Flakes And Sesame Seeds</t>
-  </si>
-  <si>
-    <t>Sesame Noodles With Chili Oil And Scallions</t>
-  </si>
-  <si>
-    <t>Egg Curry With Tomatoes And Cilantro</t>
-  </si>
-  <si>
-    <t>Korean Fried Chicken</t>
-  </si>
-  <si>
-    <t>Prawn Kastu Curry</t>
-  </si>
-  <si>
-    <t>Sweet And Sour Chicken Fried Rice</t>
-  </si>
-  <si>
-    <t>Pico De Gallo Verde</t>
-  </si>
-  <si>
-    <t>Lamb And Green Squash Dumplings</t>
-  </si>
-  <si>
-    <t>Grilled Chicken With Almond And Garlic Sauce</t>
-  </si>
-  <si>
-    <t>Parmesan Cauliflower And Parsley Salad</t>
-  </si>
-  <si>
-    <t>Eggplant And Beef Stir-Fry</t>
-  </si>
-  <si>
-    <t>Chicken And Dumplings</t>
-  </si>
-  <si>
-    <t>Asian Salmon Bowl With Lime Drizzle</t>
-  </si>
-  <si>
-    <t>Pasta With Garlic-Scape Pesto</t>
-  </si>
-  <si>
-    <t>Pico De Gallo</t>
-  </si>
-  <si>
-    <t>Basmati Rice With Summer Vegetable Salad</t>
-  </si>
-  <si>
-    <t>Fig And Sesame Tart With Cardamom Orange Cream</t>
-  </si>
-  <si>
-    <t>Tacos De Gobernador (Shrimp, Poblano, And Cheese Tacos)</t>
-  </si>
-  <si>
-    <t>Melted Broccoli Pasta With Capers And Anchovies</t>
-  </si>
-  <si>
-    <t>Lemon-Ginger Cake With Pistachios</t>
+    <t>gulab jamun</t>
+  </si>
+  <si>
+    <t>dry fruit cake</t>
+  </si>
+  <si>
+    <t>kaju katli</t>
+  </si>
+  <si>
+    <t>Prawn katsu Curry</t>
   </si>
 </sst>
 </file>
@@ -4054,10 +3042,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4095,7 +3087,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4201,7 +3193,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4343,7 +3335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4351,10 +3343,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4381,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4398,7 +3391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4415,7 +3408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4432,7 +3425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4449,7 +3442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4466,7 +3459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4483,7 +3476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4500,7 +3493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4517,7 +3510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4534,7 +3527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4551,7 +3544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4568,7 +3561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4585,7 +3578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4602,7 +3595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4619,7 +3612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4636,7 +3629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4653,7 +3646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4670,7 +3663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4687,7 +3680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4704,7 +3697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4721,7 +3714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4738,7 +3731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4755,7 +3748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4772,7 +3765,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4789,7 +3782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4806,7 +3799,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4823,7 +3816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4840,7 +3833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4857,7 +3850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4874,7 +3867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4891,7 +3884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4908,7 +3901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4925,7 +3918,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4942,7 +3935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4959,7 +3952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4976,7 +3969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4993,7 +3986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5010,7 +4003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5027,7 +4020,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5044,7 +4037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5061,7 +4054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5078,7 +4071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5095,7 +4088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5112,7 +4105,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5129,7 +4122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5146,7 +4139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5163,7 +4156,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5180,7 +4173,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5197,7 +4190,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5214,7 +4207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5231,7 +4224,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5248,7 +4241,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5265,7 +4258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5282,7 +4275,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5299,7 +4292,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5316,7 +4309,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5333,7 +4326,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5350,7 +4343,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5367,7 +4360,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5384,7 +4377,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5401,7 +4394,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5418,7 +4411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5435,7 +4428,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5452,7 +4445,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5469,7 +4462,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5486,7 +4479,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5503,7 +4496,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5520,7 +4513,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5537,7 +4530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5554,7 +4547,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5571,7 +4564,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5622,7 +4615,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5690,7 +4683,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5707,7 +4700,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5809,7 +4802,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5826,7 +4819,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5843,7 +4836,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5860,7 +4853,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5877,7 +4870,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5894,7 +4887,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5911,7 +4904,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5928,7 +4921,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5945,7 +4938,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5962,7 +4955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5979,7 +4972,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5996,7 +4989,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6013,7 +5006,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6030,7 +5023,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6047,7 +5040,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6064,7 +5057,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6081,7 +5074,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6098,7 +5091,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6115,7 +5108,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6132,7 +5125,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6149,7 +5142,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6183,7 +5176,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6200,7 +5193,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6217,7 +5210,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6234,7 +5227,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6251,7 +5244,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6268,7 +5261,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6285,7 +5278,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6302,7 +5295,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6319,7 +5312,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6336,7 +5329,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6353,7 +5346,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6370,7 +5363,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6387,7 +5380,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6404,7 +5397,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6421,7 +5414,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6438,7 +5431,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6455,7 +5448,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6472,7 +5465,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6489,7 +5482,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6506,7 +5499,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6523,7 +5516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6540,7 +5533,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6557,7 +5550,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6574,7 +5567,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6591,7 +5584,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6608,7 +5601,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6625,7 +5618,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6642,7 +5635,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6659,7 +5652,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6676,7 +5669,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6693,7 +5686,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6710,7 +5703,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6727,7 +5720,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6744,7 +5737,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6761,7 +5754,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6778,7 +5771,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6795,7 +5788,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6812,7 +5805,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6829,7 +5822,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6846,7 +5839,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6863,7 +5856,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6880,7 +5873,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6897,7 +5890,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6914,7 +5907,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6931,7 +5924,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6948,7 +5941,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6965,7 +5958,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6982,7 +5975,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6999,7 +5992,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7016,7 +6009,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7033,7 +6026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7050,7 +6043,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7067,7 +6060,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7084,7 +6077,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7101,7 +6094,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7118,7 +6111,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7135,7 +6128,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7152,7 +6145,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7169,7 +6162,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7186,7 +6179,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7203,7 +6196,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7220,7 +6213,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7237,7 +6230,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7254,7 +6247,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7271,7 +6264,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7288,7 +6281,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7305,7 +6298,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7322,7 +6315,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7339,7 +6332,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7356,7 +6349,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7373,7 +6366,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7390,7 +6383,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7407,7 +6400,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7424,7 +6417,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7441,7 +6434,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7458,7 +6451,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7475,7 +6468,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7492,7 +6485,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7509,7 +6502,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7526,7 +6519,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7543,7 +6536,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7560,7 +6553,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7577,7 +6570,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7594,7 +6587,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7611,7 +6604,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7628,7 +6621,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7645,7 +6638,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7662,7 +6655,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7679,7 +6672,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7696,7 +6689,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7713,7 +6706,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7730,7 +6723,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7747,7 +6740,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7764,12 +6757,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>415</v>
+        <v>818</v>
       </c>
       <c r="C201" t="s">
         <v>18</v>
@@ -7778,15 +6771,15 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C202" t="s">
         <v>102</v>
@@ -7795,15 +6788,15 @@
         <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C203" t="s">
         <v>18</v>
@@ -7812,15 +6805,15 @@
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C204" t="s">
         <v>18</v>
@@ -7829,15 +6822,15 @@
         <v>7</v>
       </c>
       <c r="E204" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C205" t="s">
         <v>18</v>
@@ -7846,15 +6839,15 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C206" t="s">
         <v>18</v>
@@ -7863,15 +6856,15 @@
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C207" t="s">
         <v>18</v>
@@ -7880,15 +6873,15 @@
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C208" t="s">
         <v>18</v>
@@ -7897,15 +6890,15 @@
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C209" t="s">
         <v>18</v>
@@ -7914,15 +6907,15 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C210" t="s">
         <v>18</v>
@@ -7931,15 +6924,15 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C211" t="s">
         <v>18</v>
@@ -7948,15 +6941,15 @@
         <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -7965,15 +6958,15 @@
         <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C213" t="s">
         <v>40</v>
@@ -7982,15 +6975,15 @@
         <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C214" t="s">
         <v>18</v>
@@ -7999,15 +6992,15 @@
         <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C215" t="s">
         <v>40</v>
@@ -8016,15 +7009,15 @@
         <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -8033,15 +7026,15 @@
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C217" t="s">
         <v>18</v>
@@ -8050,15 +7043,15 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -8067,15 +7060,15 @@
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -8084,15 +7077,15 @@
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C220" t="s">
         <v>18</v>
@@ -8101,15 +7094,15 @@
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C221" t="s">
         <v>18</v>
@@ -8118,15 +7111,15 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -8135,15 +7128,15 @@
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C223" t="s">
         <v>18</v>
@@ -8152,15 +7145,15 @@
         <v>7</v>
       </c>
       <c r="E223" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C224" t="s">
         <v>261</v>
@@ -8169,15 +7162,15 @@
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C225" t="s">
         <v>18</v>
@@ -8186,15 +7179,15 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C226" t="s">
         <v>18</v>
@@ -8203,15 +7196,15 @@
         <v>7</v>
       </c>
       <c r="E226" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -8220,15 +7213,15 @@
         <v>7</v>
       </c>
       <c r="E227" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -8237,15 +7230,15 @@
         <v>7</v>
       </c>
       <c r="E228" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C229" t="s">
         <v>18</v>
@@ -8254,15 +7247,15 @@
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C230" t="s">
         <v>18</v>
@@ -8271,15 +7264,15 @@
         <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C231" t="s">
         <v>18</v>
@@ -8288,15 +7281,15 @@
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C232" t="s">
         <v>107</v>
@@ -8305,15 +7298,15 @@
         <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C233" t="s">
         <v>18</v>
@@ -8322,15 +7315,15 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -8339,15 +7332,15 @@
         <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C235" t="s">
         <v>18</v>
@@ -8356,15 +7349,15 @@
         <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
@@ -8373,15 +7366,15 @@
         <v>7</v>
       </c>
       <c r="E236" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C237" t="s">
         <v>18</v>
@@ -8390,15 +7383,15 @@
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C238" t="s">
         <v>18</v>
@@ -8407,15 +7400,15 @@
         <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C239" t="s">
         <v>40</v>
@@ -8424,15 +7417,15 @@
         <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>493</v>
+        <v>816</v>
       </c>
       <c r="C240" t="s">
         <v>18</v>
@@ -8441,15 +7434,15 @@
         <v>7</v>
       </c>
       <c r="E240" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C241" t="s">
         <v>69</v>
@@ -8458,15 +7451,15 @@
         <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C242" t="s">
         <v>261</v>
@@ -8475,15 +7468,15 @@
         <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C243" t="s">
         <v>40</v>
@@ -8492,15 +7485,15 @@
         <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C244" t="s">
         <v>21</v>
@@ -8509,15 +7502,15 @@
         <v>7</v>
       </c>
       <c r="E244" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C245" t="s">
         <v>18</v>
@@ -8526,15 +7519,15 @@
         <v>7</v>
       </c>
       <c r="E245" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C246" t="s">
         <v>107</v>
@@ -8543,15 +7536,15 @@
         <v>7</v>
       </c>
       <c r="E246" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>507</v>
+        <v>817</v>
       </c>
       <c r="C247" t="s">
         <v>18</v>
@@ -8560,15 +7553,15 @@
         <v>7</v>
       </c>
       <c r="E247" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
@@ -8577,15 +7570,15 @@
         <v>10</v>
       </c>
       <c r="E248" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -8594,15 +7587,15 @@
         <v>7</v>
       </c>
       <c r="E249" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C250" t="s">
         <v>110</v>
@@ -8611,15 +7604,15 @@
         <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C251" t="s">
         <v>40</v>
@@ -8628,15 +7621,15 @@
         <v>10</v>
       </c>
       <c r="E251" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C252" t="s">
         <v>18</v>
@@ -8645,15 +7638,15 @@
         <v>7</v>
       </c>
       <c r="E252" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C253" t="s">
         <v>21</v>
@@ -8662,15 +7655,15 @@
         <v>10</v>
       </c>
       <c r="E253" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C254" t="s">
         <v>18</v>
@@ -8679,15 +7672,15 @@
         <v>7</v>
       </c>
       <c r="E254" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
@@ -8696,15 +7689,15 @@
         <v>7</v>
       </c>
       <c r="E255" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C256" t="s">
         <v>40</v>
@@ -8713,15 +7706,15 @@
         <v>10</v>
       </c>
       <c r="E256" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C257" t="s">
         <v>18</v>
@@ -8730,15 +7723,15 @@
         <v>7</v>
       </c>
       <c r="E257" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C258" t="s">
         <v>18</v>
@@ -8747,15 +7740,15 @@
         <v>7</v>
       </c>
       <c r="E258" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C259" t="s">
         <v>40</v>
@@ -8764,15 +7757,15 @@
         <v>10</v>
       </c>
       <c r="E259" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C260" t="s">
         <v>18</v>
@@ -8781,15 +7774,15 @@
         <v>7</v>
       </c>
       <c r="E260" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C261" t="s">
         <v>40</v>
@@ -8798,15 +7791,15 @@
         <v>10</v>
       </c>
       <c r="E261" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C262" t="s">
         <v>40</v>
@@ -8815,15 +7808,15 @@
         <v>10</v>
       </c>
       <c r="E262" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C263" t="s">
         <v>40</v>
@@ -8832,15 +7825,15 @@
         <v>10</v>
       </c>
       <c r="E263" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C264" t="s">
         <v>40</v>
@@ -8849,15 +7842,15 @@
         <v>7</v>
       </c>
       <c r="E264" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C265" t="s">
         <v>107</v>
@@ -8866,15 +7859,15 @@
         <v>7</v>
       </c>
       <c r="E265" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C266" t="s">
         <v>13</v>
@@ -8883,15 +7876,15 @@
         <v>7</v>
       </c>
       <c r="E266" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C267" t="s">
         <v>13</v>
@@ -8900,15 +7893,15 @@
         <v>7</v>
       </c>
       <c r="E267" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C268" t="s">
         <v>18</v>
@@ -8917,15 +7910,15 @@
         <v>7</v>
       </c>
       <c r="E268" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C269" t="s">
         <v>18</v>
@@ -8934,15 +7927,15 @@
         <v>7</v>
       </c>
       <c r="E269" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C270" t="s">
         <v>18</v>
@@ -8951,15 +7944,15 @@
         <v>7</v>
       </c>
       <c r="E270" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C271" t="s">
         <v>102</v>
@@ -8968,15 +7961,15 @@
         <v>7</v>
       </c>
       <c r="E271" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C272" t="s">
         <v>13</v>
@@ -8985,15 +7978,15 @@
         <v>7</v>
       </c>
       <c r="E272" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C273" t="s">
         <v>18</v>
@@ -9002,15 +7995,15 @@
         <v>7</v>
       </c>
       <c r="E273" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C274" t="s">
         <v>102</v>
@@ -9019,15 +8012,15 @@
         <v>7</v>
       </c>
       <c r="E274" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C275" t="s">
         <v>13</v>
@@ -9036,15 +8029,15 @@
         <v>7</v>
       </c>
       <c r="E275" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C276" t="s">
         <v>102</v>
@@ -9053,15 +8046,15 @@
         <v>7</v>
       </c>
       <c r="E276" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
@@ -9070,15 +8063,15 @@
         <v>7</v>
       </c>
       <c r="E277" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C278" t="s">
         <v>18</v>
@@ -9087,15 +8080,15 @@
         <v>7</v>
       </c>
       <c r="E278" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C279" t="s">
         <v>18</v>
@@ -9104,15 +8097,15 @@
         <v>7</v>
       </c>
       <c r="E279" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -9121,15 +8114,15 @@
         <v>7</v>
       </c>
       <c r="E280" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C281" t="s">
         <v>13</v>
@@ -9138,15 +8131,15 @@
         <v>7</v>
       </c>
       <c r="E281" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
@@ -9155,15 +8148,15 @@
         <v>7</v>
       </c>
       <c r="E282" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
@@ -9172,15 +8165,15 @@
         <v>7</v>
       </c>
       <c r="E283" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C284" t="s">
         <v>110</v>
@@ -9189,15 +8182,15 @@
         <v>7</v>
       </c>
       <c r="E284" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
@@ -9206,15 +8199,15 @@
         <v>7</v>
       </c>
       <c r="E285" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
@@ -9223,15 +8216,15 @@
         <v>7</v>
       </c>
       <c r="E286" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C287" t="s">
         <v>69</v>
@@ -9240,15 +8233,15 @@
         <v>7</v>
       </c>
       <c r="E287" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C288" t="s">
         <v>107</v>
@@ -9257,15 +8250,15 @@
         <v>7</v>
       </c>
       <c r="E288" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C289" t="s">
         <v>69</v>
@@ -9274,15 +8267,15 @@
         <v>10</v>
       </c>
       <c r="E289" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C290" t="s">
         <v>40</v>
@@ -9291,15 +8284,15 @@
         <v>10</v>
       </c>
       <c r="E290" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C291" t="s">
         <v>40</v>
@@ -9308,15 +8301,15 @@
         <v>10</v>
       </c>
       <c r="E291" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C292" t="s">
         <v>40</v>
@@ -9325,15 +8318,15 @@
         <v>10</v>
       </c>
       <c r="E292" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C293" t="s">
         <v>40</v>
@@ -9342,15 +8335,15 @@
         <v>10</v>
       </c>
       <c r="E293" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C294" t="s">
         <v>40</v>
@@ -9359,15 +8352,15 @@
         <v>10</v>
       </c>
       <c r="E294" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C295" t="s">
         <v>40</v>
@@ -9376,15 +8369,15 @@
         <v>7</v>
       </c>
       <c r="E295" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C296" t="s">
         <v>40</v>
@@ -9393,15 +8386,15 @@
         <v>10</v>
       </c>
       <c r="E296" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C297" t="s">
         <v>40</v>
@@ -9410,15 +8403,15 @@
         <v>10</v>
       </c>
       <c r="E297" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C298" t="s">
         <v>40</v>
@@ -9427,15 +8420,15 @@
         <v>10</v>
       </c>
       <c r="E298" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C299" t="s">
         <v>110</v>
@@ -9444,15 +8437,15 @@
         <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C300" t="s">
         <v>40</v>
@@ -9461,15 +8454,15 @@
         <v>7</v>
       </c>
       <c r="E300" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -9478,15 +8471,15 @@
         <v>7</v>
       </c>
       <c r="E301" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
@@ -9495,15 +8488,15 @@
         <v>7</v>
       </c>
       <c r="E302" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C303" t="s">
         <v>110</v>
@@ -9512,15 +8505,15 @@
         <v>10</v>
       </c>
       <c r="E303" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C304" t="s">
         <v>6</v>
@@ -9529,15 +8522,15 @@
         <v>7</v>
       </c>
       <c r="E304" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C305" t="s">
         <v>40</v>
@@ -9546,15 +8539,15 @@
         <v>7</v>
       </c>
       <c r="E305" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C306" t="s">
         <v>21</v>
@@ -9563,15 +8556,15 @@
         <v>7</v>
       </c>
       <c r="E306" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C307" t="s">
         <v>13</v>
@@ -9580,15 +8573,15 @@
         <v>7</v>
       </c>
       <c r="E307" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C308" t="s">
         <v>40</v>
@@ -9597,15 +8590,15 @@
         <v>10</v>
       </c>
       <c r="E308" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C309" t="s">
         <v>40</v>
@@ -9614,15 +8607,15 @@
         <v>7</v>
       </c>
       <c r="E309" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C310" t="s">
         <v>13</v>
@@ -9631,15 +8624,15 @@
         <v>7</v>
       </c>
       <c r="E310" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C311" t="s">
         <v>21</v>
@@ -9648,15 +8641,15 @@
         <v>10</v>
       </c>
       <c r="E311" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
@@ -9665,49 +8658,49 @@
         <v>7</v>
       </c>
       <c r="E312" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C313" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D313" t="s">
         <v>7</v>
       </c>
       <c r="E313" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C314" t="s">
+        <v>635</v>
+      </c>
+      <c r="D314" t="s">
+        <v>10</v>
+      </c>
+      <c r="E314" t="s">
         <v>638</v>
       </c>
-      <c r="D314" t="s">
-        <v>10</v>
-      </c>
-      <c r="E314" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C315" t="s">
         <v>69</v>
@@ -9716,15 +8709,15 @@
         <v>7</v>
       </c>
       <c r="E315" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C316" t="s">
         <v>6</v>
@@ -9733,15 +8726,15 @@
         <v>7</v>
       </c>
       <c r="E316" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C317" t="s">
         <v>40</v>
@@ -9750,32 +8743,32 @@
         <v>10</v>
       </c>
       <c r="E317" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C318" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D318" t="s">
         <v>10</v>
       </c>
       <c r="E318" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C319" t="s">
         <v>107</v>
@@ -9784,15 +8777,15 @@
         <v>7</v>
       </c>
       <c r="E319" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C320" t="s">
         <v>40</v>
@@ -9801,15 +8794,15 @@
         <v>7</v>
       </c>
       <c r="E320" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C321" t="s">
         <v>40</v>
@@ -9818,15 +8811,15 @@
         <v>10</v>
       </c>
       <c r="E321" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C322" t="s">
         <v>110</v>
@@ -9835,117 +8828,117 @@
         <v>10</v>
       </c>
       <c r="E322" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C323" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D323" t="s">
         <v>10</v>
       </c>
       <c r="E323" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C324" t="s">
+        <v>657</v>
+      </c>
+      <c r="D324" t="s">
+        <v>10</v>
+      </c>
+      <c r="E324" t="s">
         <v>660</v>
       </c>
-      <c r="D324" t="s">
-        <v>10</v>
-      </c>
-      <c r="E324" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C325" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D325" t="s">
         <v>10</v>
       </c>
       <c r="E325" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C326" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D326" t="s">
         <v>7</v>
       </c>
       <c r="E326" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C327" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
       </c>
       <c r="E327" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C328" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D328" t="s">
         <v>10</v>
       </c>
       <c r="E328" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C329" t="s">
         <v>110</v>
@@ -9954,15 +8947,15 @@
         <v>10</v>
       </c>
       <c r="E329" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C330" t="s">
         <v>261</v>
@@ -9971,15 +8964,15 @@
         <v>10</v>
       </c>
       <c r="E330" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C331" t="s">
         <v>69</v>
@@ -9988,15 +8981,15 @@
         <v>7</v>
       </c>
       <c r="E331" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C332" t="s">
         <v>6</v>
@@ -10005,15 +8998,15 @@
         <v>10</v>
       </c>
       <c r="E332" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C333" t="s">
         <v>40</v>
@@ -10022,15 +9015,15 @@
         <v>7</v>
       </c>
       <c r="E333" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C334" t="s">
         <v>40</v>
@@ -10039,15 +9032,15 @@
         <v>10</v>
       </c>
       <c r="E334" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C335" t="s">
         <v>40</v>
@@ -10056,15 +9049,15 @@
         <v>10</v>
       </c>
       <c r="E335" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C336" t="s">
         <v>69</v>
@@ -10073,15 +9066,15 @@
         <v>10</v>
       </c>
       <c r="E336" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C337" t="s">
         <v>107</v>
@@ -10090,15 +9083,15 @@
         <v>7</v>
       </c>
       <c r="E337" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
@@ -10107,66 +9100,66 @@
         <v>7</v>
       </c>
       <c r="E338" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C339" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D339" t="s">
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C340" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D340" t="s">
         <v>10</v>
       </c>
       <c r="E340" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C341" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D341" t="s">
         <v>10</v>
       </c>
       <c r="E341" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C342" t="s">
         <v>40</v>
@@ -10175,49 +9168,49 @@
         <v>7</v>
       </c>
       <c r="E342" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C343" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D343" t="s">
         <v>7</v>
       </c>
       <c r="E343" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C344" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D344" t="s">
         <v>7</v>
       </c>
       <c r="E344" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C345" t="s">
         <v>40</v>
@@ -10226,15 +9219,15 @@
         <v>7</v>
       </c>
       <c r="E345" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C346" t="s">
         <v>6</v>
@@ -10243,15 +9236,15 @@
         <v>7</v>
       </c>
       <c r="E346" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C347" t="s">
         <v>40</v>
@@ -10260,100 +9253,100 @@
         <v>7</v>
       </c>
       <c r="E347" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C348" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D348" t="s">
         <v>7</v>
       </c>
       <c r="E348" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C349" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D349" t="s">
         <v>7</v>
       </c>
       <c r="E349" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C350" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D350" t="s">
         <v>7</v>
       </c>
       <c r="E350" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C351" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D351" t="s">
         <v>7</v>
       </c>
       <c r="E351" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C352" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D352" t="s">
         <v>10</v>
       </c>
       <c r="E352" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C353" t="s">
         <v>40</v>
@@ -10362,66 +9355,66 @@
         <v>10</v>
       </c>
       <c r="E353" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C354" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D354" t="s">
         <v>10</v>
       </c>
       <c r="E354" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C355" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D355" t="s">
         <v>7</v>
       </c>
       <c r="E355" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C356" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D356" t="s">
         <v>10</v>
       </c>
       <c r="E356" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C357" t="s">
         <v>110</v>
@@ -10430,15 +9423,15 @@
         <v>7</v>
       </c>
       <c r="E357" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C358" t="s">
         <v>107</v>
@@ -10447,15 +9440,15 @@
         <v>7</v>
       </c>
       <c r="E358" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C359" t="s">
         <v>21</v>
@@ -10464,15 +9457,15 @@
         <v>10</v>
       </c>
       <c r="E359" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -10481,15 +9474,15 @@
         <v>7</v>
       </c>
       <c r="E360" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C361" t="s">
         <v>110</v>
@@ -10498,15 +9491,15 @@
         <v>7</v>
       </c>
       <c r="E361" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C362" t="s">
         <v>261</v>
@@ -10515,32 +9508,32 @@
         <v>7</v>
       </c>
       <c r="E362" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C363" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D363" t="s">
         <v>10</v>
       </c>
       <c r="E363" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C364" t="s">
         <v>110</v>
@@ -10549,15 +9542,15 @@
         <v>10</v>
       </c>
       <c r="E364" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C365" t="s">
         <v>40</v>
@@ -10566,15 +9559,15 @@
         <v>7</v>
       </c>
       <c r="E365" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C366" t="s">
         <v>40</v>
@@ -10583,49 +9576,49 @@
         <v>10</v>
       </c>
       <c r="E366" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C367" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D367" t="s">
         <v>10</v>
       </c>
       <c r="E367" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C368" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D368" t="s">
         <v>10</v>
       </c>
       <c r="E368" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>754</v>
+        <v>819</v>
       </c>
       <c r="C369" t="s">
         <v>21</v>
@@ -10634,32 +9627,32 @@
         <v>10</v>
       </c>
       <c r="E369" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C370" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D370" t="s">
         <v>10</v>
       </c>
       <c r="E370" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C371" t="s">
         <v>110</v>
@@ -10668,15 +9661,15 @@
         <v>10</v>
       </c>
       <c r="E371" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C372" t="s">
         <v>110</v>
@@ -10685,15 +9678,15 @@
         <v>10</v>
       </c>
       <c r="E372" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C373" t="s">
         <v>261</v>
@@ -10702,49 +9695,49 @@
         <v>10</v>
       </c>
       <c r="E373" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C374" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D374" t="s">
         <v>7</v>
       </c>
       <c r="E374" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C375" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D375" t="s">
         <v>10</v>
       </c>
       <c r="E375" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C376" t="s">
         <v>102</v>
@@ -10753,15 +9746,15 @@
         <v>7</v>
       </c>
       <c r="E376" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C377" t="s">
         <v>261</v>
@@ -10770,15 +9763,15 @@
         <v>7</v>
       </c>
       <c r="E377" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C378" t="s">
         <v>110</v>
@@ -10787,15 +9780,15 @@
         <v>10</v>
       </c>
       <c r="E378" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C379" t="s">
         <v>21</v>
@@ -10804,15 +9797,15 @@
         <v>7</v>
       </c>
       <c r="E379" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
@@ -10821,15 +9814,15 @@
         <v>10</v>
       </c>
       <c r="E380" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C381" t="s">
         <v>107</v>
@@ -10838,32 +9831,32 @@
         <v>7</v>
       </c>
       <c r="E381" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C382" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D382" t="s">
         <v>10</v>
       </c>
       <c r="E382" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C383" t="s">
         <v>261</v>
@@ -10872,15 +9865,15 @@
         <v>10</v>
       </c>
       <c r="E383" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C384" t="s">
         <v>110</v>
@@ -10889,15 +9882,15 @@
         <v>10</v>
       </c>
       <c r="E384" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C385" t="s">
         <v>110</v>
@@ -10906,15 +9899,15 @@
         <v>10</v>
       </c>
       <c r="E385" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C386" t="s">
         <v>261</v>
@@ -10923,15 +9916,15 @@
         <v>10</v>
       </c>
       <c r="E386" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C387" t="s">
         <v>107</v>
@@ -10940,15 +9933,15 @@
         <v>7</v>
       </c>
       <c r="E387" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C388" t="s">
         <v>102</v>
@@ -10957,15 +9950,15 @@
         <v>7</v>
       </c>
       <c r="E388" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C389" t="s">
         <v>40</v>
@@ -10974,15 +9967,15 @@
         <v>7</v>
       </c>
       <c r="E389" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C390" t="s">
         <v>102</v>
@@ -10991,15 +9984,15 @@
         <v>7</v>
       </c>
       <c r="E390" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C391" t="s">
         <v>6</v>
@@ -11008,15 +10001,15 @@
         <v>7</v>
       </c>
       <c r="E391" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C392" t="s">
         <v>69</v>
@@ -11025,15 +10018,15 @@
         <v>10</v>
       </c>
       <c r="E392" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C393" t="s">
         <v>102</v>
@@ -11042,32 +10035,32 @@
         <v>7</v>
       </c>
       <c r="E393" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C394" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D394" t="s">
         <v>10</v>
       </c>
       <c r="E394" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C395" t="s">
         <v>18</v>
@@ -11076,15 +10069,15 @@
         <v>10</v>
       </c>
       <c r="E395" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C396" t="s">
         <v>69</v>
@@ -11093,32 +10086,32 @@
         <v>7</v>
       </c>
       <c r="E396" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C397" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D397" t="s">
         <v>7</v>
       </c>
       <c r="E397" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C398" t="s">
         <v>102</v>
@@ -11127,15 +10120,15 @@
         <v>10</v>
       </c>
       <c r="E398" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C399" t="s">
         <v>69</v>
@@ -11144,15 +10137,15 @@
         <v>10</v>
       </c>
       <c r="E399" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C400" t="s">
         <v>18</v>
@@ -11161,15 +10154,15 @@
         <v>10</v>
       </c>
       <c r="E400" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C401" t="s">
         <v>6</v>
@@ -11178,2031 +10171,17 @@
         <v>7</v>
       </c>
       <c r="E401" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08E9461-84DD-48BE-9757-FC1A57E5116B}">
-  <dimension ref="A1:A400"/>
-  <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="66.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A375" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A391" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A392" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A395" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A396" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A397" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A398" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A399" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A400" t="s">
-        <v>991</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A400">
-    <sortCondition ref="A1:A400"/>
-  </sortState>
+  <autoFilter ref="A1:E401" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Beverage"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>